--- a/Side Table BOM.xlsx
+++ b/Side Table BOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9434C48-D5E5-4B54-ACE5-21C67C711921}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{F9434C48-D5E5-4B54-ACE5-21C67C711921}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{29B71B3E-6AFD-4886-A3B9-2BAB0432933B}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5115" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>General Part</t>
   </si>
@@ -40,15 +40,6 @@
     <t>Package</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Precision</t>
-  </si>
-  <si>
-    <t>Power</t>
-  </si>
-  <si>
     <t>Arduino Nano</t>
   </si>
   <si>
@@ -151,23 +142,71 @@
     <t>CKN9924-ND</t>
   </si>
   <si>
-    <t>1k</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
     <t>1825910-2</t>
   </si>
   <si>
     <t>450-1649-ND</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/arduino/A000005/2638989?s=N4IgTCBcDaIIwAYCsCC0iF1QOQCIgF0BfIA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/kycon-inc/KLDX-0202-A/9975992?s=N4IgTCBcDa4AwE4wFoDSAZAIgDWXM%2ByAgsgHKYgC6AvkA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/vishay-semiconductor-opto-division/TLMS1000-GS08/4075818?s=N4IgTCBcDaICoBkCyBlAjABiwWgOIowA44AlbAOQBEQBdAXyA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/koa-speer-electronics-inc/RK73B2ATTD102J/10236529?s=N4IgTCBcDa4AwEYCcBaASgaQOwGYBCYAggCrEAiCcYAUsWigHJkgC6AvkA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/panasonic-electronic-components/ERJ-6ENF1002V/111474?s=N4IgTCBcDaIAoEYAMA6JBpAwgFQEoFoA5AERAF0BfIA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/te-connectivity-alcoswitch-switches/1825910-2/1632535?s=N4IgTCBcDaICwFYAMBaAjANjgThQOQBEQBdAXyA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/samtec-inc/SSW-104-01-T-D/1112252?s=N4IgTCBcDaIMoEECyBGMaC0AGALBgcgCIgC6AvkA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/samtec-inc/TSM-109-01-L-SV/6692082?s=N4IgTCBcDaIMoEECyBGMYBsKC0A5AIiALoC%2BQA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/c-k/TS02CBE/2055202?s=N4IgTCBcDaIMIGkByBOFYAsBaJAREAugL5A</t>
+  </si>
+  <si>
+    <t>Note: There is double of everything on here to make it possible for two boards, since they will talk to each other through transcievers :)</t>
+  </si>
+  <si>
+    <t>Power Strip Sockets</t>
+  </si>
+  <si>
+    <t>Part 2: The amazon boogaloo</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Conference-Recessed-Desktop-Grommet-2-Outlet/dp/B071ZG9Q45/ref=sr_1_5?dchild=1&amp;keywords=desk+power+outlet+with+usb&amp;qid=1612455020&amp;sr=8-5</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/ALITOVE-WS2812B-Individually-Addressable-Waterproof/dp/B00ZHB9M6A</t>
+  </si>
+  <si>
+    <t>30 led/m WS2812B Led Strips</t>
+  </si>
+  <si>
+    <t>5V 4A DC Wall adapters</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Geekworm-Adapter-Raspberry-Expansion-Management/dp/B07413Q5Y4/ref=sr_1_8?dchild=1&amp;keywords=4+amp+power+supply+5v&amp;qid=1613017220&amp;sr=8-8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +218,14 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -198,8 +245,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -207,12 +255,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -491,22 +538,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="2" max="2" width="50" customWidth="1"/>
     <col min="3" max="3" width="24.5703125" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,246 +572,286 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="E4" s="2">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2">
         <v>603</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G4" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="2">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="2">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="2">
-        <v>7</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="2">
-        <v>7</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E10" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G10" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{495B809F-1E47-40D0-AF90-AF1103210AA2}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{C1E2FD88-88FF-4869-8FF0-3984298B1936}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{AC251333-FB43-4D9D-99DB-5CC572AAF44F}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{5CC381FD-ADCE-4626-8ED2-FA2EBCB80E74}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{A1B546EA-7EC0-4756-B391-EECDD45F1FAB}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{6F1217DF-658A-41DC-A356-C83736DF6939}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{12460C95-CA80-407E-B743-B5E856E47818}"/>
+    <hyperlink ref="G9" r:id="rId8" xr:uid="{5AA5BCCA-8DDB-46EE-B858-7071DD692D8B}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{C1781B63-C886-44AE-8274-292F9EE5AD43}"/>
+    <hyperlink ref="G15" r:id="rId10" xr:uid="{2CFB0EFD-12BC-4FD7-81C6-AAD4AA2082D8}"/>
+    <hyperlink ref="G16" r:id="rId11" xr:uid="{FDFC62BF-616B-40CF-87BB-BD1257E72E78}"/>
+    <hyperlink ref="G17" r:id="rId12" xr:uid="{5821E63C-7022-4954-9D41-31AB4EAA88A5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/Side Table BOM.xlsx
+++ b/Side Table BOM.xlsx
@@ -1,26 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{F9434C48-D5E5-4B54-ACE5-21C67C711921}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{29B71B3E-6AFD-4886-A3B9-2BAB0432933B}"/>
+  <xr:revisionPtr revIDLastSave="135" documentId="13_ncr:1_{F9434C48-D5E5-4B54-ACE5-21C67C711921}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0B6CABC3-A9B2-445B-BED1-814BA43892C7}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5115" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
   <si>
     <t>General Part</t>
   </si>
@@ -112,9 +121,6 @@
     <t>SAM12261-ND</t>
   </si>
   <si>
-    <t>TS02CBE</t>
-  </si>
-  <si>
     <t>TLMS1000-GS08</t>
   </si>
   <si>
@@ -139,9 +145,6 @@
     <t>SAM1212-04-ND</t>
   </si>
   <si>
-    <t>CKN9924-ND</t>
-  </si>
-  <si>
     <t>1825910-2</t>
   </si>
   <si>
@@ -193,20 +196,57 @@
     <t>https://www.amazon.com/ALITOVE-WS2812B-Individually-Addressable-Waterproof/dp/B00ZHB9M6A</t>
   </si>
   <si>
-    <t>30 led/m WS2812B Led Strips</t>
-  </si>
-  <si>
-    <t>5V 4A DC Wall adapters</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/Geekworm-Adapter-Raspberry-Expansion-Management/dp/B07413Q5Y4/ref=sr_1_8?dchild=1&amp;keywords=4+amp+power+supply+5v&amp;qid=1613017220&amp;sr=8-8</t>
+  </si>
+  <si>
+    <t>Individual Cost</t>
+  </si>
+  <si>
+    <t>Total For all of parts</t>
+  </si>
+  <si>
+    <t>Ideal Amount</t>
+  </si>
+  <si>
+    <t>Digikey Total:</t>
+  </si>
+  <si>
+    <t>Taxes:</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Amazon Total Total:</t>
+  </si>
+  <si>
+    <t>5V 4A DC Wall adapters (Black)</t>
+  </si>
+  <si>
+    <t>30 led/m WS2812B Led Strips (5m)</t>
+  </si>
+  <si>
+    <t>Shipping:</t>
+  </si>
+  <si>
+    <t>GF-123-0054</t>
+  </si>
+  <si>
+    <t>CWI333-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,17 +255,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -247,16 +294,23 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -538,318 +592,1026 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
     <col min="2" max="2" width="50" customWidth="1"/>
     <col min="3" max="3" width="24.5703125" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="23.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="7">
+        <v>22</v>
+      </c>
+      <c r="H2" s="4">
+        <f t="shared" ref="H2:H10" si="0">E2*G2</f>
+        <v>44</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.08</v>
+      </c>
+      <c r="I3" s="3">
+        <v>5</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="3">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3">
+        <v>603</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="0"/>
+        <v>9.24</v>
+      </c>
+      <c r="I4" s="3">
+        <v>50</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="3">
+        <v>22</v>
+      </c>
+      <c r="F5" s="9">
+        <v>805</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I5" s="3">
+        <v>50</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="3">
+        <v>14</v>
+      </c>
+      <c r="F6" s="3">
+        <v>805</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="I6" s="3">
+        <v>50</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="3">
+        <v>14</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>1.9600000000000002</v>
+      </c>
+      <c r="I7" s="3">
+        <v>20</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="3">
         <v>2</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
+        <v>1.48</v>
+      </c>
+      <c r="I8" s="3">
+        <v>4</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4">
+        <v>1.36</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>2.72</v>
+      </c>
+      <c r="I9" s="3">
+        <v>4</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="3">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="F10" s="3"/>
+      <c r="G10" s="4">
+        <v>1.26</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
+        <v>10.08</v>
+      </c>
+      <c r="I10" s="3">
+        <v>10</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="6">
+        <f>SUM(H2:H10)</f>
+        <v>74.16</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2">
         <v>2</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="2">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2">
-        <v>603</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="2">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="2">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="2">
-        <v>14</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="F17" s="2"/>
+      <c r="G17" s="4">
+        <v>14.99</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" ref="H17:H18" si="1">E17*G17</f>
+        <v>29.98</v>
+      </c>
+      <c r="I17" s="2">
         <v>2</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="J17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="4">
+        <v>26.99</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="1"/>
+        <v>26.99</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2">
         <v>2</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="2">
-        <v>8</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15">
+      <c r="F19" s="2"/>
+      <c r="G19" s="4">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="H19" s="4">
+        <f>E19*G19</f>
+        <v>37.979999999999997</v>
+      </c>
+      <c r="I19" s="2">
         <v>2</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="J19" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="4">
+        <f>SUM(H17:H19)</f>
+        <v>94.949999999999989</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{495B809F-1E47-40D0-AF90-AF1103210AA2}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{C1E2FD88-88FF-4869-8FF0-3984298B1936}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{AC251333-FB43-4D9D-99DB-5CC572AAF44F}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{5CC381FD-ADCE-4626-8ED2-FA2EBCB80E74}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{A1B546EA-7EC0-4756-B391-EECDD45F1FAB}"/>
-    <hyperlink ref="G7" r:id="rId6" xr:uid="{6F1217DF-658A-41DC-A356-C83736DF6939}"/>
-    <hyperlink ref="G8" r:id="rId7" xr:uid="{12460C95-CA80-407E-B743-B5E856E47818}"/>
-    <hyperlink ref="G9" r:id="rId8" xr:uid="{5AA5BCCA-8DDB-46EE-B858-7071DD692D8B}"/>
-    <hyperlink ref="G10" r:id="rId9" xr:uid="{C1781B63-C886-44AE-8274-292F9EE5AD43}"/>
-    <hyperlink ref="G15" r:id="rId10" xr:uid="{2CFB0EFD-12BC-4FD7-81C6-AAD4AA2082D8}"/>
-    <hyperlink ref="G16" r:id="rId11" xr:uid="{FDFC62BF-616B-40CF-87BB-BD1257E72E78}"/>
-    <hyperlink ref="G17" r:id="rId12" xr:uid="{5821E63C-7022-4954-9D41-31AB4EAA88A5}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{495B809F-1E47-40D0-AF90-AF1103210AA2}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{C1E2FD88-88FF-4869-8FF0-3984298B1936}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{AC251333-FB43-4D9D-99DB-5CC572AAF44F}"/>
+    <hyperlink ref="J5" r:id="rId4" xr:uid="{5CC381FD-ADCE-4626-8ED2-FA2EBCB80E74}"/>
+    <hyperlink ref="J6" r:id="rId5" xr:uid="{A1B546EA-7EC0-4756-B391-EECDD45F1FAB}"/>
+    <hyperlink ref="J7" r:id="rId6" xr:uid="{6F1217DF-658A-41DC-A356-C83736DF6939}"/>
+    <hyperlink ref="J8" r:id="rId7" xr:uid="{12460C95-CA80-407E-B743-B5E856E47818}"/>
+    <hyperlink ref="J9" r:id="rId8" xr:uid="{5AA5BCCA-8DDB-46EE-B858-7071DD692D8B}"/>
+    <hyperlink ref="J10" r:id="rId9" xr:uid="{C1781B63-C886-44AE-8274-292F9EE5AD43}"/>
+    <hyperlink ref="J17" r:id="rId10" xr:uid="{2CFB0EFD-12BC-4FD7-81C6-AAD4AA2082D8}"/>
+    <hyperlink ref="J18" r:id="rId11" xr:uid="{FDFC62BF-616B-40CF-87BB-BD1257E72E78}"/>
+    <hyperlink ref="J19" r:id="rId12" xr:uid="{5821E63C-7022-4954-9D41-31AB4EAA88A5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId13"/>
